--- a/APITestCase-Niza-HRM.xlsx
+++ b/APITestCase-Niza-HRM.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16005" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Employe" sheetId="2" r:id="rId2"/>
     <sheet name="Payroll" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -420,8 +421,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,10 +869,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,7 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1079,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1103,7 +1102,7 @@
     <col min="13" max="13" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="24" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1125,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1174,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="90">
       <c r="A3" s="32" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1223,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="90">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1272,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="90">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1321,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="5" customFormat="1" ht="105">
       <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1370,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="105">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1419,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="90">
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="90">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="90">
       <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
@@ -1561,7 +1560,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="90">
       <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
@@ -1610,7 +1609,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="90">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -1659,7 +1658,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="90">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1707,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="90.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -1757,7 +1756,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="90.75" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>84</v>
       </c>
@@ -1818,14 +1817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView topLeftCell="H4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1842,7 +1841,7 @@
     <col min="13" max="13" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="24" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1913,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="165">
       <c r="A3" s="32" t="s">
         <v>71</v>
       </c>
@@ -1963,7 +1962,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30">
       <c r="A4" s="34" t="s">
         <v>72</v>
       </c>
@@ -2010,7 +2009,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30">
       <c r="A5" s="34" t="s">
         <v>79</v>
       </c>
@@ -2057,7 +2056,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30">
       <c r="A6" s="34" t="s">
         <v>73</v>
       </c>
@@ -2104,7 +2103,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30">
       <c r="A7" s="32" t="s">
         <v>80</v>
       </c>
@@ -2151,7 +2150,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30">
       <c r="A8" s="34" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2197,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30">
       <c r="A9" s="34" t="s">
         <v>81</v>
       </c>
@@ -2245,7 +2244,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30">
       <c r="A10" s="34" t="s">
         <v>75</v>
       </c>
@@ -2292,7 +2291,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -2315,7 +2314,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8"/>
@@ -2338,7 +2337,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="8"/>
@@ -2361,7 +2360,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="A14" s="10"/>
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
@@ -2395,14 +2394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
